--- a/data/trans_bre/P14_1-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P14_1-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>13,17%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,27</t>
+          <t>-1,44; 2,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 6,7</t>
+          <t>-2,0; 6,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-45,36; 119,68</t>
+          <t>-39,58; 112,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 40,3</t>
+          <t>-9,39; 40,92</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,96%</t>
+          <t>74,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>12,86%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 4,29</t>
+          <t>-0,21; 5,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 8,23</t>
+          <t>-2,63; 7,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 334,73</t>
+          <t>-15,92; 383,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 48,8</t>
+          <t>-11,77; 43,82</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>134,73%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>13,08%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 14,05</t>
+          <t>-3,91; 3,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 14,92</t>
+          <t>-7,52; 13,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-78,09; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,7; 84,78</t>
+          <t>-24,93; 75,27</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>12,55%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,71</t>
+          <t>-0,4; 2,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 6,09</t>
+          <t>-0,9; 5,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 134,96</t>
+          <t>-14,45; 133,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 33,56</t>
+          <t>-4,2; 29,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14_1-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P14_1-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,82%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>13,17%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.2912941966590699</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.584926504272023</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.1024615353056188</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1392456211506169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 2,2</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,0; 6,61</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-39,58; 112,63</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-9,39; 40,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.435656981287102</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.934258601263267</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.4088505056837911</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.09100070177533577</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.110557472556308</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.886105119888467</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.107395860406497</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.4253249013135366</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,66</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>74,46%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,21; 5,41</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,63; 7,88</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-15,92; 383,64</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,77; 43,82</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.616240484554206</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.941820729832037</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.704592303845275</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.1440409278882293</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,11</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,85%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>13,08%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.3129841536628739</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.454012902521582</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1837020014533104</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1018354906358683</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,91; 3,66</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,52; 13,41</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-24,93; 75,27</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.530355999897527</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.254574502569797</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>3.264062269662214</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.4714430768021005</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,123 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>33,55%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>12,55%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.561811002625577</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.754991950182535</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.6469700284266758</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1600414981247104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 2,67</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 5,4</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-14,45; 133,8</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 29,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.426274051861906</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.830929023294916</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.9126731190413798</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2338997289082582</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.825423144345059</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.71288742412013</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="n">
+        <v>0.7851186972051423</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.9576345591050177</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.77485323721976</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.3723943493560678</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1393840312359821</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.2760467320938523</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.6604740492714548</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1105461891601962</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.03028967216355304</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.569336801654506</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.649650857808812</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.317950853192206</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.3052663297440006</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +840,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
